--- a/06_Energia/P0606/P0606.xlsx
+++ b/06_Energia/P0606/P0606.xlsx
@@ -206,7 +206,7 @@
     <t>https://github.com/INECC-PCCS/01_Dmine/tree/master/06_Energia/P0606</t>
   </si>
   <si>
-    <t>Se sumó el potencial en Megawatts hora para las pantas de generacion de energía en cada municipio.Los resultados de esta suma se agregaron por clave del SUN</t>
+    <t>Se sumó el potencial en Gigawatts hora al año para las plantas de generacion de energía en cada municipio. Los resultados de esta suma se agregaron por clave del SUN</t>
   </si>
   <si>
     <t>Los datos para este parametro se agregaron desde los individuos de una poblacion, por lo que se considera que los datos están completos y que si un municipio no tiene datos significa que ese municipio tiene cero unidades de las que está considerando el parámetro</t>
